--- a/data/trans_dic/P15_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares convivientes con COVID-19</t>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,17 +686,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -710,17 +711,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -735,17 +736,17 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,75</t>
+          <t>0,33; 1,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,55</t>
+          <t>1,48; 3,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,58</t>
+          <t>5,81; 10,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,36</t>
+          <t>18,67; 25,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,01</t>
+          <t>0,51; 2,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,54</t>
+          <t>0,25; 1,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,77</t>
+          <t>2,98; 5,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,23</t>
+          <t>6,37; 9,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,93; 20,03</t>
+          <t>14,91; 19,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,29</t>
+          <t>0,35; 1,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,33</t>
+          <t>0,44; 1,45</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,21</t>
+          <t>2,54; 4,26</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 9,46</t>
+          <t>6,65; 9,25</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 21,75</t>
+          <t>17,53; 21,6</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,17 +881,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,89</t>
+          <t>1,95; 5,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,03</t>
+          <t>6,83; 11,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,79; 24,18</t>
+          <t>13,22; 24,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,02</t>
+          <t>0,53; 1,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,39</t>
+          <t>0,15; 1,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,59</t>
+          <t>2,54; 5,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,01</t>
+          <t>7,88; 12,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,3</t>
+          <t>11,86; 21,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,21</t>
+          <t>0,32; 1,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,15</t>
+          <t>0,22; 1,32</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,66</t>
+          <t>2,62; 4,94</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 11,93</t>
+          <t>7,9; 11,65</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,97</t>
+          <t>13,9; 21,74</t>
         </is>
       </c>
     </row>
@@ -1030,12 +1031,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1055,37 +1056,37 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>7,58%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>3,61%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>7,55%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 6,87</t>
+          <t>0,45; 6,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 13,25</t>
+          <t>3,53; 13,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,42</t>
+          <t>2,03; 9,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,71</t>
+          <t>4,18; 12,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,6</t>
+          <t>1,76; 6,31</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,23</t>
+          <t>5,03; 11,28</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1195,17 +1196,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1220,17 +1221,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1245,17 +1246,17 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,65</t>
+          <t>0,07; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,19</t>
+          <t>0,28; 1,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,7</t>
+          <t>1,95; 3,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,23</t>
+          <t>6,73; 10,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,29; 23,92</t>
+          <t>18,42; 24,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,57</t>
+          <t>0,59; 1,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,1</t>
+          <t>0,26; 1,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,31</t>
+          <t>3,32; 5,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,41</t>
+          <t>7,46; 10,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,91; 19,36</t>
+          <t>14,99; 19,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,94</t>
+          <t>0,36; 0,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,97</t>
+          <t>0,36; 0,97</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,22</t>
+          <t>2,87; 4,18</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 9,78</t>
+          <t>7,46; 9,54</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>17,37; 20,95</t>
+          <t>17,23; 20,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4825</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14730</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39560</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>126427</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50096</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19113</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12504</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>75931</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>146106</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41078</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23938</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27234</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>115491</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>272533</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>91173</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14918</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5501; 31171</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24460; 60990</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>95513; 165613</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42852; 57996</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9205; 36010</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4446; 28747</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>54444; 103822</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>115934; 180636</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>35471; 46951</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11985; 42906</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15271; 50301</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>88136; 147924</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>230445; 320575</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>81932; 100929</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7541</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45200</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>123125</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13046</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15184</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8628</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>53540</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>139844</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10698</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18202</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16169</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>98740</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>262969</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23744</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17510</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 24434</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26853; 73753</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>94378; 164469</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9559; 17843</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7525; 27860</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2101; 20086</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34882; 79462</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>108912; 176774</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7777; 14370</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8864; 34765</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6030; 36414</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>72030; 135997</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>218365; 321863</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>19160; 29975</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9073</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31979</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1789</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20727</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31332</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1789</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>29800</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>63312</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1896; 28016</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14907; 56380</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9266</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8299; 40269</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17226; 51233</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7670</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14662; 52497</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>42011; 94180</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7843</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22271</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>93834</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>281531</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>63142</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36087</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21132</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>150198</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>317283</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51775</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43929</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43403</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>244032</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>598813</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>114917</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2353; 22909</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9546; 43813</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67355; 131737</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>232148; 344802</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55574; 72655</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21405; 54718</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9429; 41067</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>120072; 190209</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>269423; 369810</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45480; 59700</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25532; 65694</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25704; 68577</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>202872; 295261</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>526518; 673565</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>104274; 126936</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>